--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H2">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I2">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J2">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N2">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O2">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P2">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q2">
-        <v>4.420269109956465</v>
+        <v>5.130985894098444</v>
       </c>
       <c r="R2">
-        <v>4.420269109956465</v>
+        <v>46.178873046886</v>
       </c>
       <c r="S2">
-        <v>0.1137590507595301</v>
+        <v>0.1059576337199107</v>
       </c>
       <c r="T2">
-        <v>0.1137590507595301</v>
+        <v>0.1059576337199107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H3">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I3">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J3">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N3">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O3">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P3">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q3">
-        <v>7.883562816397094</v>
+        <v>8.933668324159221</v>
       </c>
       <c r="R3">
-        <v>7.883562816397094</v>
+        <v>80.403014917433</v>
       </c>
       <c r="S3">
-        <v>0.20288959796054</v>
+        <v>0.1844850825170227</v>
       </c>
       <c r="T3">
-        <v>0.20288959796054</v>
+        <v>0.1844850825170228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H4">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I4">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J4">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N4">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O4">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P4">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q4">
-        <v>1.939429092313974</v>
+        <v>2.058316947033111</v>
       </c>
       <c r="R4">
-        <v>1.939429092313974</v>
+        <v>18.52485252329799</v>
       </c>
       <c r="S4">
-        <v>0.04991271053160555</v>
+        <v>0.04250535816207698</v>
       </c>
       <c r="T4">
-        <v>0.04991271053160555</v>
+        <v>0.04250535816207698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H5">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I5">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J5">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N5">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O5">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P5">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q5">
-        <v>3.046692069622483</v>
+        <v>3.674295774932555</v>
       </c>
       <c r="R5">
-        <v>3.046692069622483</v>
+        <v>33.068661974393</v>
       </c>
       <c r="S5">
-        <v>0.07840898125776224</v>
+        <v>0.07587619493296729</v>
       </c>
       <c r="T5">
-        <v>0.07840898125776224</v>
+        <v>0.07587619493296731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H6">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I6">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J6">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89078618421431</v>
+        <v>2.498796666666667</v>
       </c>
       <c r="N6">
-        <v>1.89078618421431</v>
+        <v>7.49639</v>
       </c>
       <c r="O6">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="P6">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="Q6">
-        <v>2.068183926897442</v>
+        <v>2.850633067858889</v>
       </c>
       <c r="R6">
-        <v>2.068183926897442</v>
+        <v>25.65569761073</v>
       </c>
       <c r="S6">
-        <v>0.05322631597022555</v>
+        <v>0.05886711456787769</v>
       </c>
       <c r="T6">
-        <v>0.05322631597022555</v>
+        <v>0.05886711456787769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H7">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I7">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J7">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N7">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O7">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P7">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q7">
-        <v>3.782457163512646</v>
+        <v>4.588818224127333</v>
       </c>
       <c r="R7">
-        <v>3.782457163512646</v>
+        <v>41.299364017146</v>
       </c>
       <c r="S7">
-        <v>0.09734446608478578</v>
+        <v>0.0947615781128098</v>
       </c>
       <c r="T7">
-        <v>0.09734446608478578</v>
+        <v>0.09476157811280982</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H8">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I8">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J8">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N8">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O8">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P8">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q8">
-        <v>6.746023354486851</v>
+        <v>7.989688699273667</v>
       </c>
       <c r="R8">
-        <v>6.746023354486851</v>
+        <v>71.907198293463</v>
       </c>
       <c r="S8">
-        <v>0.1736141384422641</v>
+        <v>0.1649913927277513</v>
       </c>
       <c r="T8">
-        <v>0.1736141384422641</v>
+        <v>0.1649913927277514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H9">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I9">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J9">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N9">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O9">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P9">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q9">
-        <v>1.659583903347475</v>
+        <v>1.840824066275333</v>
       </c>
       <c r="R9">
-        <v>1.659583903347475</v>
+        <v>16.567416596478</v>
       </c>
       <c r="S9">
-        <v>0.04271067774479095</v>
+        <v>0.03801401254708967</v>
       </c>
       <c r="T9">
-        <v>0.04271067774479095</v>
+        <v>0.03801401254708967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H10">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I10">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J10">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N10">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O10">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P10">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q10">
-        <v>2.60707707089676</v>
+        <v>3.286049847113667</v>
       </c>
       <c r="R10">
-        <v>2.60707707089676</v>
+        <v>29.574448624023</v>
       </c>
       <c r="S10">
-        <v>0.06709514861303831</v>
+        <v>0.0678587065472759</v>
       </c>
       <c r="T10">
-        <v>0.06709514861303831</v>
+        <v>0.06785870654727591</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H11">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I11">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J11">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.89078618421431</v>
+        <v>2.498796666666667</v>
       </c>
       <c r="N11">
-        <v>1.89078618421431</v>
+        <v>7.49639</v>
       </c>
       <c r="O11">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="P11">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="Q11">
-        <v>1.769760373216732</v>
+        <v>2.549419788336667</v>
       </c>
       <c r="R11">
-        <v>1.769760373216732</v>
+        <v>22.94477809503</v>
       </c>
       <c r="S11">
-        <v>0.04554615457133333</v>
+        <v>0.05264689743964553</v>
       </c>
       <c r="T11">
-        <v>0.04554615457133333</v>
+        <v>0.05264689743964553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.165749116458517</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H12">
-        <v>0.165749116458517</v>
+        <v>0.207213</v>
       </c>
       <c r="I12">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="J12">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N12">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O12">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P12">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q12">
-        <v>0.6698124167557242</v>
+        <v>0.3106605906526667</v>
       </c>
       <c r="R12">
-        <v>0.6698124167557242</v>
+        <v>2.795945315874</v>
       </c>
       <c r="S12">
-        <v>0.01723814157501113</v>
+        <v>0.006415309212493971</v>
       </c>
       <c r="T12">
-        <v>0.01723814157501113</v>
+        <v>0.006415309212493972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.165749116458517</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H13">
-        <v>0.165749116458517</v>
+        <v>0.207213</v>
       </c>
       <c r="I13">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="J13">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N13">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O13">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P13">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q13">
-        <v>1.194612393802537</v>
+        <v>0.5408977408163334</v>
       </c>
       <c r="R13">
-        <v>1.194612393802537</v>
+        <v>4.868079667347001</v>
       </c>
       <c r="S13">
-        <v>0.03074427564567105</v>
+        <v>0.01116983088323505</v>
       </c>
       <c r="T13">
-        <v>0.03074427564567105</v>
+        <v>0.01116983088323506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.165749116458517</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H14">
-        <v>0.165749116458517</v>
+        <v>0.207213</v>
       </c>
       <c r="I14">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="J14">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N14">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O14">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P14">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q14">
-        <v>0.2938856560844047</v>
+        <v>0.1246228252646667</v>
       </c>
       <c r="R14">
-        <v>0.2938856560844047</v>
+        <v>1.121605427382</v>
       </c>
       <c r="S14">
-        <v>0.00756337508788755</v>
+        <v>0.002573528741858715</v>
       </c>
       <c r="T14">
-        <v>0.00756337508788755</v>
+        <v>0.002573528741858715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.165749116458517</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H15">
-        <v>0.165749116458517</v>
+        <v>0.207213</v>
       </c>
       <c r="I15">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="J15">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N15">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O15">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P15">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q15">
-        <v>0.4616714791567144</v>
+        <v>0.2224638537763333</v>
       </c>
       <c r="R15">
-        <v>0.4616714791567144</v>
+        <v>2.002174683987</v>
       </c>
       <c r="S15">
-        <v>0.01188147325992405</v>
+        <v>0.004593998896287015</v>
       </c>
       <c r="T15">
-        <v>0.01188147325992405</v>
+        <v>0.004593998896287016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.207213</v>
+      </c>
+      <c r="I16">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="J16">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.498796666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.49639</v>
+      </c>
+      <c r="O16">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="P16">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="Q16">
+        <v>0.1725943845633334</v>
+      </c>
+      <c r="R16">
+        <v>1.55334946107</v>
+      </c>
+      <c r="S16">
+        <v>0.003564167385981165</v>
+      </c>
+      <c r="T16">
+        <v>0.003564167385981165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.209088</v>
+      </c>
+      <c r="H17">
+        <v>0.627264</v>
+      </c>
+      <c r="I17">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J17">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.497699333333333</v>
+      </c>
+      <c r="N17">
+        <v>13.493098</v>
+      </c>
+      <c r="O17">
+        <v>0.2265545985397048</v>
+      </c>
+      <c r="P17">
+        <v>0.2265545985397048</v>
+      </c>
+      <c r="Q17">
+        <v>0.9404149582080001</v>
+      </c>
+      <c r="R17">
+        <v>8.463734623872</v>
+      </c>
+      <c r="S17">
+        <v>0.0194200774944903</v>
+      </c>
+      <c r="T17">
+        <v>0.0194200774944903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.209088</v>
+      </c>
+      <c r="H18">
+        <v>0.627264</v>
+      </c>
+      <c r="I18">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J18">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.831039666666666</v>
+      </c>
+      <c r="N18">
+        <v>23.493119</v>
+      </c>
+      <c r="O18">
+        <v>0.3944590147859676</v>
+      </c>
+      <c r="P18">
+        <v>0.3944590147859677</v>
+      </c>
+      <c r="Q18">
+        <v>1.637376421824</v>
+      </c>
+      <c r="R18">
+        <v>14.736387796416</v>
+      </c>
+      <c r="S18">
+        <v>0.03381270865795849</v>
+      </c>
+      <c r="T18">
+        <v>0.0338127086579585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.165749116458517</v>
-      </c>
-      <c r="H16">
-        <v>0.165749116458517</v>
-      </c>
-      <c r="I16">
-        <v>0.07549275806412414</v>
-      </c>
-      <c r="J16">
-        <v>0.07549275806412414</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.89078618421431</v>
-      </c>
-      <c r="N16">
-        <v>1.89078618421431</v>
-      </c>
-      <c r="O16">
-        <v>0.1068379630371892</v>
-      </c>
-      <c r="P16">
-        <v>0.1068379630371892</v>
-      </c>
-      <c r="Q16">
-        <v>0.3133961394454927</v>
-      </c>
-      <c r="R16">
-        <v>0.3133961394454927</v>
-      </c>
-      <c r="S16">
-        <v>0.008065492495630365</v>
-      </c>
-      <c r="T16">
-        <v>0.008065492495630365</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.209088</v>
+      </c>
+      <c r="H19">
+        <v>0.627264</v>
+      </c>
+      <c r="I19">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J19">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.804271333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.412813999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.09088334663693197</v>
+      </c>
+      <c r="P19">
+        <v>0.09088334663693197</v>
+      </c>
+      <c r="Q19">
+        <v>0.377251484544</v>
+      </c>
+      <c r="R19">
+        <v>3.395263360896</v>
+      </c>
+      <c r="S19">
+        <v>0.007790447185906602</v>
+      </c>
+      <c r="T19">
+        <v>0.007790447185906602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.209088</v>
+      </c>
+      <c r="H20">
+        <v>0.627264</v>
+      </c>
+      <c r="I20">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J20">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.220799666666667</v>
+      </c>
+      <c r="N20">
+        <v>9.662399000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1622356056685755</v>
+      </c>
+      <c r="P20">
+        <v>0.1622356056685755</v>
+      </c>
+      <c r="Q20">
+        <v>0.6734305607040001</v>
+      </c>
+      <c r="R20">
+        <v>6.060875046336001</v>
+      </c>
+      <c r="S20">
+        <v>0.01390670529204528</v>
+      </c>
+      <c r="T20">
+        <v>0.01390670529204528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.209088</v>
+      </c>
+      <c r="H21">
+        <v>0.627264</v>
+      </c>
+      <c r="I21">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J21">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.498796666666667</v>
+      </c>
+      <c r="N21">
+        <v>7.49639</v>
+      </c>
+      <c r="O21">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="P21">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="Q21">
+        <v>0.5224683974400001</v>
+      </c>
+      <c r="R21">
+        <v>4.70221557696</v>
+      </c>
+      <c r="S21">
+        <v>0.01078925497531569</v>
+      </c>
+      <c r="T21">
+        <v>0.01078925497531569</v>
       </c>
     </row>
   </sheetData>
